--- a/prix/prix.xlsx
+++ b/prix/prix.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nouveau dossier\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rocko\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63097933-5688-4D5E-89EE-07C063DA5938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BB0B94-7D46-445D-A6D1-E15BB67D0416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>path</t>
   </si>
@@ -114,6 +114,27 @@
   </si>
   <si>
     <t>ROCKO 1230X2800 GREIGE BABYLON 130</t>
+  </si>
+  <si>
+    <t>galerie/K190.jpg</t>
+  </si>
+  <si>
+    <t>galerie/K365.jpg</t>
+  </si>
+  <si>
+    <t>galerie/K551.jpg</t>
+  </si>
+  <si>
+    <t>galerie/R109.jpg</t>
+  </si>
+  <si>
+    <t>galerie/R120.jpg</t>
+  </si>
+  <si>
+    <t>galerie/R160.jpg</t>
+  </si>
+  <si>
+    <t>galerie/R162B.jpg</t>
   </si>
 </sst>
 </file>
@@ -616,7 +637,7 @@
   <dimension ref="A1:G448"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +690,9 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
@@ -685,7 +708,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="12" t="s">
+        <v>26</v>
+      </c>
       <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
@@ -701,7 +726,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
@@ -717,7 +744,9 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
@@ -733,7 +762,9 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
@@ -765,7 +796,9 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="B9" s="27" t="s">
         <v>21</v>
       </c>
@@ -781,7 +814,9 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="12" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" s="27" t="s">
         <v>23</v>
       </c>

--- a/prix/prix.xlsx
+++ b/prix/prix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rocko\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BB0B94-7D46-445D-A6D1-E15BB67D0416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B21F7E-463E-49C1-B891-B166432AE56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>path</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>galerie/R162B.jpg</t>
+  </si>
+  <si>
+    <t>galerie/R157B.jpg</t>
+  </si>
+  <si>
+    <t>galerie/r156.jpg</t>
+  </si>
+  <si>
+    <t>galerie/R130.jpg</t>
   </si>
 </sst>
 </file>
@@ -637,7 +646,7 @@
   <dimension ref="A1:G448"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,7 +683,9 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
@@ -780,7 +791,9 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="12" t="s">
+        <v>34</v>
+      </c>
       <c r="B8" s="27" t="s">
         <v>19</v>
       </c>
@@ -832,7 +845,9 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="B11" s="27" t="s">
         <v>25</v>
       </c>

--- a/prix/prix.xlsx
+++ b/prix/prix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rocko\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0B21F7E-463E-49C1-B891-B166432AE56F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2FF32E-1062-4D8F-AFB7-965EFC432CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>path</t>
   </si>
@@ -145,6 +145,9 @@
   <si>
     <t>galerie/R130.jpg</t>
   </si>
+  <si>
+    <t>1230x2800</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +156,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +202,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -646,7 +655,7 @@
   <dimension ref="A1:G448"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="C2" sqref="C2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,7 +698,9 @@
       <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D2" s="6">
         <v>199.8</v>
       </c>
@@ -707,7 +718,9 @@
       <c r="B3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D3" s="6">
         <v>199.8</v>
       </c>
@@ -725,7 +738,9 @@
       <c r="B4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D4" s="6">
         <v>199.8</v>
       </c>
@@ -743,7 +758,9 @@
       <c r="B5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D5" s="6">
         <v>199.8</v>
       </c>
@@ -761,7 +778,9 @@
       <c r="B6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D6" s="6">
         <v>199.8</v>
       </c>
@@ -779,7 +798,9 @@
       <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D7" s="6">
         <v>199.8</v>
       </c>
@@ -797,7 +818,9 @@
       <c r="B8" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D8" s="6">
         <v>199.8</v>
       </c>
@@ -815,7 +838,9 @@
       <c r="B9" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D9" s="6">
         <v>199.8</v>
       </c>
@@ -833,7 +858,9 @@
       <c r="B10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D10" s="6">
         <v>199.8</v>
       </c>
@@ -851,7 +878,9 @@
       <c r="B11" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="D11" s="6">
         <v>199.8</v>
       </c>
@@ -3825,6 +3854,7 @@
       <c r="A448" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/prix/prix.xlsx
+++ b/prix/prix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rocko\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F2FF32E-1062-4D8F-AFB7-965EFC432CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F020C9-7DB9-4E74-A412-9B99A91B337E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E95DC93-531D-460D-9A06-44397A8920D7}"/>
   </bookViews>
@@ -140,13 +140,13 @@
     <t>galerie/R157B.jpg</t>
   </si>
   <si>
-    <t>galerie/r156.jpg</t>
-  </si>
-  <si>
     <t>galerie/R130.jpg</t>
   </si>
   <si>
     <t>1230x2800</t>
+  </si>
+  <si>
+    <t>galerie/R156.jpg</t>
   </si>
 </sst>
 </file>
@@ -655,7 +655,7 @@
   <dimension ref="A1:G448"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -699,7 +699,7 @@
         <v>7</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D2" s="6">
         <v>199.8</v>
@@ -719,7 +719,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="6">
         <v>199.8</v>
@@ -739,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="6">
         <v>199.8</v>
@@ -759,7 +759,7 @@
         <v>13</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="6">
         <v>199.8</v>
@@ -779,7 +779,7 @@
         <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" s="6">
         <v>199.8</v>
@@ -799,7 +799,7 @@
         <v>17</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D7" s="6">
         <v>199.8</v>
@@ -813,13 +813,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="6">
         <v>199.8</v>
@@ -839,7 +839,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" s="6">
         <v>199.8</v>
@@ -859,7 +859,7 @@
         <v>23</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="6">
         <v>199.8</v>
@@ -873,13 +873,13 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6">
         <v>199.8</v>
